--- a/paper/raw_data/revised/old_results/exp04_COMPARISON_OC.xlsx
+++ b/paper/raw_data/revised/old_results/exp04_COMPARISON_OC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodr\Desktop\MemPod\paper\raw_data\revised\old_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodr\Documents\UCSD\MigrationResearch\MemPod\paper\raw_data\revised\old_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -202,13 +202,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1890,7 +1890,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$Q$2</c15:sqref>
@@ -1919,7 +1919,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$K$3:$K$32</c15:sqref>
@@ -2023,7 +2023,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$Q$3:$Q$32</c15:sqref>
@@ -2126,7 +2126,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-A30C-4D75-9F32-A7C62C551628}"/>
                   </c:ext>
@@ -2482,12 +2482,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2532,12 +2529,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2545,14 +2539,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="1"/>
-                  <a:t>AMMAT</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AMMAT / AMMAT (DDR4-2400)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900" b="1" baseline="0"/>
-                  <a:t> / AMMAT (DDR4-2400)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="900" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2569,12 +2558,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2601,12 +2587,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2652,7 +2635,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3760,15 +3747,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>157164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4093,14 +4080,14 @@
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="10" max="10" width="2.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.1328125" style="2"/>
+    <col min="10" max="10" width="2.1328125" customWidth="1"/>
+    <col min="11" max="11" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
         <v>35</v>
       </c>
@@ -4114,66 +4101,66 @@
       <c r="L1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3">
@@ -4200,7 +4187,7 @@
       <c r="I3">
         <v>12.37</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L3">
@@ -4236,8 +4223,8 @@
         <v>0.37047020065887987</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4">
@@ -4264,7 +4251,7 @@
       <c r="I4">
         <v>28.86</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L4">
@@ -4300,8 +4287,8 @@
         <v>0.58385595792029132</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5">
@@ -4328,7 +4315,7 @@
       <c r="I5">
         <v>55.82</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L5">
@@ -4364,8 +4351,8 @@
         <v>0.63252124645892349</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6">
@@ -4392,7 +4379,7 @@
       <c r="I6">
         <v>35.549999999999997</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L6">
@@ -4428,8 +4415,8 @@
         <v>0.36353410369158395</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7">
@@ -4456,7 +4443,7 @@
       <c r="I7">
         <v>57.67</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L7">
@@ -4492,8 +4479,8 @@
         <v>0.69750846637639086</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8">
@@ -4521,7 +4508,7 @@
         <f>B8*2/3</f>
         <v>16.533333333333335</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L8">
@@ -4557,8 +4544,8 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9">
@@ -4585,7 +4572,7 @@
       <c r="I9">
         <v>22.22</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L9">
@@ -4621,8 +4608,8 @@
         <v>0.40928347762018785</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10">
@@ -4649,7 +4636,7 @@
       <c r="I10">
         <v>7.49</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L10">
@@ -4685,8 +4672,8 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B11">
@@ -4713,7 +4700,7 @@
       <c r="I11">
         <v>28.29</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L11">
@@ -4749,8 +4736,8 @@
         <v>0.46059915337023766</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12">
@@ -4777,7 +4764,7 @@
       <c r="I12">
         <v>11.01</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L12">
@@ -4813,8 +4800,8 @@
         <v>0.32660931474339955</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B13">
@@ -4841,7 +4828,7 @@
       <c r="I13">
         <v>13.68</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="L13">
@@ -4877,8 +4864,8 @@
         <v>0.36142668428005281</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B14">
@@ -4905,7 +4892,7 @@
       <c r="I14">
         <v>9.0299999999999994</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L14">
@@ -4941,8 +4928,8 @@
         <v>0.32587513533020568</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B15">
@@ -4969,7 +4956,7 @@
       <c r="I15">
         <v>22.87</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L15">
@@ -5005,8 +4992,8 @@
         <v>0.43611746758199849</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B16">
@@ -5033,7 +5020,7 @@
       <c r="I16">
         <v>51.52</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L16">
@@ -5069,8 +5056,8 @@
         <v>0.60912745329865225</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B17">
@@ -5097,7 +5084,7 @@
       <c r="I17">
         <v>28.69</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L17">
@@ -5133,8 +5120,8 @@
         <v>0.46940445026178013</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B18">
@@ -5161,7 +5148,7 @@
       <c r="I18">
         <v>15.59</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L18">
@@ -5197,8 +5184,8 @@
         <v>0.36314931283484742</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B19">
@@ -5225,7 +5212,7 @@
       <c r="I19">
         <v>10.55</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L19">
@@ -5261,8 +5248,8 @@
         <v>0.31075110456553756</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B20">
@@ -5289,7 +5276,7 @@
       <c r="I20">
         <v>19.809999999999999</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="L20">
@@ -5325,8 +5312,8 @@
         <v>0.40428571428571425</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21">
@@ -5353,7 +5340,7 @@
       <c r="I21">
         <v>37.07</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L21">
@@ -5389,8 +5376,8 @@
         <v>0.45240419819380034</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B22">
@@ -5417,7 +5404,7 @@
       <c r="I22">
         <v>19.170000000000002</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L22">
@@ -5453,8 +5440,8 @@
         <v>0.40743889479277373</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B23">
@@ -5481,7 +5468,7 @@
       <c r="I23">
         <v>12.69</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L23">
@@ -5517,8 +5504,8 @@
         <v>0.33115866388308973</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B24">
@@ -5545,7 +5532,7 @@
       <c r="I24">
         <v>19.14</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="L24">
@@ -5581,8 +5568,8 @@
         <v>0.39693073413521363</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B25">
@@ -5609,7 +5596,7 @@
       <c r="I25">
         <v>23.72</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L25">
@@ -5645,8 +5632,8 @@
         <v>0.39818700688265901</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B26">
@@ -5673,7 +5660,7 @@
       <c r="I26">
         <v>17.95</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L26">
@@ -5709,8 +5696,8 @@
         <v>0.36964579901153211</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B27">
@@ -5737,7 +5724,7 @@
       <c r="I27">
         <v>26.58</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L27">
@@ -5773,8 +5760,8 @@
         <v>0.46081830790568651</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B28">
@@ -5801,7 +5788,7 @@
       <c r="I28">
         <v>25</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L28">
@@ -5837,8 +5824,8 @@
         <v>0.43237634036665512</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B29">
@@ -5865,7 +5852,7 @@
       <c r="I29">
         <v>20.43</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L29">
@@ -5901,8 +5888,8 @@
         <v>0.41297756215888415</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B30">
@@ -5910,7 +5897,7 @@
         <v>54.96400000000002</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:S30" si="9">AVERAGE(C3:C17)</f>
+        <f t="shared" ref="C30:I30" si="9">AVERAGE(C3:C17)</f>
         <v>42.145333333333333</v>
       </c>
       <c r="D30">
@@ -5937,7 +5924,7 @@
         <f t="shared" si="9"/>
         <v>26.773555555555554</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L30">
@@ -5973,8 +5960,8 @@
         <v>0.48711075532267561</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B31">
@@ -5982,7 +5969,7 @@
         <v>51.209166666666668</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:S31" si="10">AVERAGE(C18:C29)</f>
+        <f t="shared" ref="C31:I31" si="10">AVERAGE(C18:C29)</f>
         <v>36.38750000000001</v>
       </c>
       <c r="D31">
@@ -6009,7 +5996,7 @@
         <f t="shared" si="10"/>
         <v>20.641666666666666</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L31">
@@ -6045,8 +6032,8 @@
         <v>0.40308538510357844</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B32">
@@ -6054,7 +6041,7 @@
         <v>53.295185185185183</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:S32" si="11">AVERAGE(C3:C29)</f>
+        <f t="shared" ref="C32:I32" si="11">AVERAGE(C3:C29)</f>
         <v>39.586296296296297</v>
       </c>
       <c r="D32">
@@ -6081,7 +6068,7 @@
         <f t="shared" si="11"/>
         <v>24.048271604938275</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L32">
@@ -6117,33 +6104,33 @@
         <v>0.451227845843439</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.45">
       <c r="D34">
         <f>D32/C32</f>
         <v>0.88495831890946175</v>
@@ -6161,31 +6148,31 @@
         <v>0.60748980972964217</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L37" s="4" t="s">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="L37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="N37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O37" s="4" t="s">
+      <c r="O37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P37" s="4" t="s">
+      <c r="P37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="Q37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R37" s="4" t="s">
+      <c r="R37" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K38" s="4" t="s">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="K38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L38">

--- a/paper/raw_data/revised/old_results/exp04_COMPARISON_OC.xlsx
+++ b/paper/raw_data/revised/old_results/exp04_COMPARISON_OC.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2529,7 +2532,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2539,7 +2542,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="900"/>
                   <a:t>AMMAT / AMMAT (DDR4-2400)</a:t>
                 </a:r>
               </a:p>
@@ -2558,7 +2561,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3746,16 +3749,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>157164</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647605</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3775,6 +3778,227 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="NUM_MEA"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="42">
+          <cell r="B42">
+            <v>16</v>
+          </cell>
+          <cell r="K42">
+            <v>1</v>
+          </cell>
+          <cell r="S42">
+            <v>5.5293333333333345</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>32</v>
+          </cell>
+          <cell r="K43">
+            <v>0.97144305784988805</v>
+          </cell>
+          <cell r="S43">
+            <v>9.8260000000000005</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>64</v>
+          </cell>
+          <cell r="K44">
+            <v>0.94605910927201053</v>
+          </cell>
+          <cell r="S44">
+            <v>16.27333333333333</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>AVG HG</v>
+          </cell>
+          <cell r="B45">
+            <v>128</v>
+          </cell>
+          <cell r="K45">
+            <v>0.93789764642384021</v>
+          </cell>
+          <cell r="S45">
+            <v>24.355999999999995</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>256</v>
+          </cell>
+          <cell r="K46">
+            <v>0.93582048052861433</v>
+          </cell>
+          <cell r="S46">
+            <v>31.40333333333334</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>512</v>
+          </cell>
+          <cell r="K47">
+            <v>0.95070411017157086</v>
+          </cell>
+          <cell r="S47">
+            <v>39.788000000000004</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>16</v>
+          </cell>
+          <cell r="L49">
+            <v>1</v>
+          </cell>
+          <cell r="T49">
+            <v>7.3083333333333336</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>32</v>
+          </cell>
+          <cell r="L50">
+            <v>0.96679464326523112</v>
+          </cell>
+          <cell r="T50">
+            <v>13.094999999999999</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>64</v>
+          </cell>
+          <cell r="L51">
+            <v>0.94334750217103147</v>
+          </cell>
+          <cell r="T51">
+            <v>22.46083333333333</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>AVG MIX</v>
+          </cell>
+          <cell r="B52">
+            <v>128</v>
+          </cell>
+          <cell r="L52">
+            <v>0.93841126194067359</v>
+          </cell>
+          <cell r="T52">
+            <v>36.655833333333341</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>256</v>
+          </cell>
+          <cell r="L53">
+            <v>0.94357603181132599</v>
+          </cell>
+          <cell r="T53">
+            <v>52.180833333333339</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>512</v>
+          </cell>
+          <cell r="L54">
+            <v>0.9646921705745235</v>
+          </cell>
+          <cell r="T54">
+            <v>72.006666666666661</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>16</v>
+          </cell>
+          <cell r="M56">
+            <v>1</v>
+          </cell>
+          <cell r="U56">
+            <v>6.3200000000000012</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>32</v>
+          </cell>
+          <cell r="M57">
+            <v>0.96950399908483431</v>
+          </cell>
+          <cell r="U57">
+            <v>11.27888888888889</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>64</v>
+          </cell>
+          <cell r="M58">
+            <v>0.94492797834107123</v>
+          </cell>
+          <cell r="U58">
+            <v>19.02333333333333</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>AVG ALL</v>
+          </cell>
+          <cell r="B59">
+            <v>128</v>
+          </cell>
+          <cell r="M59">
+            <v>0.93811189811151718</v>
+          </cell>
+          <cell r="U59">
+            <v>29.822592592592596</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>256</v>
+          </cell>
+          <cell r="M60">
+            <v>0.93905566306637855</v>
+          </cell>
+          <cell r="U60">
+            <v>40.637777777777771</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>512</v>
+          </cell>
+          <cell r="M61">
+            <v>0.95653914717966837</v>
+          </cell>
+          <cell r="U61">
+            <v>54.107407407407393</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4076,8 +4300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/paper/raw_data/revised/old_results/exp04_COMPARISON_OC.xlsx
+++ b/paper/raw_data/revised/old_results/exp04_COMPARISON_OC.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodr\Documents\UCSD\MigrationResearch\MemPod\paper\raw_data\revised\old_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aprodrom\Desktop\MemPod\paper\raw_data\revised\old_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,10 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -158,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -230,7 +227,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -473,7 +470,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A30C-4D75-9F32-A7C62C551628}"/>
             </c:ext>
@@ -702,7 +699,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A30C-4D75-9F32-A7C62C551628}"/>
             </c:ext>
@@ -931,7 +928,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A30C-4D75-9F32-A7C62C551628}"/>
             </c:ext>
@@ -1160,7 +1157,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A30C-4D75-9F32-A7C62C551628}"/>
             </c:ext>
@@ -1389,7 +1386,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A30C-4D75-9F32-A7C62C551628}"/>
             </c:ext>
@@ -1618,7 +1615,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-A30C-4D75-9F32-A7C62C551628}"/>
             </c:ext>
@@ -1634,9 +1631,9 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370010536"/>
-        <c:axId val="370016440"/>
-        <c:extLst>
+        <c:axId val="379708608"/>
+        <c:axId val="379709000"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -1644,7 +1641,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$2</c15:sqref>
@@ -1673,7 +1670,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$K$3:$K$32</c15:sqref>
@@ -1777,7 +1774,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$3:$L$32</c15:sqref>
@@ -1880,7 +1877,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-A30C-4D75-9F32-A7C62C551628}"/>
                   </c:ext>
@@ -1893,7 +1890,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$Q$2</c15:sqref>
@@ -1922,7 +1919,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$K$3:$K$32</c15:sqref>
@@ -2026,7 +2023,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$Q$3:$Q$32</c15:sqref>
@@ -2129,7 +2126,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-A30C-4D75-9F32-A7C62C551628}"/>
                   </c:ext>
@@ -2140,7 +2137,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370010536"/>
+        <c:axId val="379708608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2183,7 +2180,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370016440"/>
+        <c:crossAx val="379709000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2191,7 +2188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370016440"/>
+        <c:axId val="379709000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -2243,7 +2240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370010536"/>
+        <c:crossAx val="379708608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2257,6 +2254,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2324,7 +2322,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2429,7 +2427,7 @@
                   <c:v>0.65732433615711239</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57902527502310697</c:v>
+                  <c:v>0.57335455221443121</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.451227845843439</c:v>
@@ -2437,7 +2435,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8EB4-42F8-ACD7-B2CF1A834764}"/>
             </c:ext>
@@ -2453,11 +2451,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="360132736"/>
-        <c:axId val="360134704"/>
+        <c:axId val="379709392"/>
+        <c:axId val="379710960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="360132736"/>
+        <c:axId val="379709392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,7 +2495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360134704"/>
+        <c:crossAx val="379710960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2505,7 +2503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="360134704"/>
+        <c:axId val="379710960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2548,6 +2546,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2602,7 +2601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360132736"/>
+        <c:crossAx val="379709392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3719,16 +3718,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9523</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333373</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3778,227 +3777,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="NUM_MEA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="42">
-          <cell r="B42">
-            <v>16</v>
-          </cell>
-          <cell r="K42">
-            <v>1</v>
-          </cell>
-          <cell r="S42">
-            <v>5.5293333333333345</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>32</v>
-          </cell>
-          <cell r="K43">
-            <v>0.97144305784988805</v>
-          </cell>
-          <cell r="S43">
-            <v>9.8260000000000005</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>64</v>
-          </cell>
-          <cell r="K44">
-            <v>0.94605910927201053</v>
-          </cell>
-          <cell r="S44">
-            <v>16.27333333333333</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>AVG HG</v>
-          </cell>
-          <cell r="B45">
-            <v>128</v>
-          </cell>
-          <cell r="K45">
-            <v>0.93789764642384021</v>
-          </cell>
-          <cell r="S45">
-            <v>24.355999999999995</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>256</v>
-          </cell>
-          <cell r="K46">
-            <v>0.93582048052861433</v>
-          </cell>
-          <cell r="S46">
-            <v>31.40333333333334</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>512</v>
-          </cell>
-          <cell r="K47">
-            <v>0.95070411017157086</v>
-          </cell>
-          <cell r="S47">
-            <v>39.788000000000004</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>16</v>
-          </cell>
-          <cell r="L49">
-            <v>1</v>
-          </cell>
-          <cell r="T49">
-            <v>7.3083333333333336</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>32</v>
-          </cell>
-          <cell r="L50">
-            <v>0.96679464326523112</v>
-          </cell>
-          <cell r="T50">
-            <v>13.094999999999999</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>64</v>
-          </cell>
-          <cell r="L51">
-            <v>0.94334750217103147</v>
-          </cell>
-          <cell r="T51">
-            <v>22.46083333333333</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>AVG MIX</v>
-          </cell>
-          <cell r="B52">
-            <v>128</v>
-          </cell>
-          <cell r="L52">
-            <v>0.93841126194067359</v>
-          </cell>
-          <cell r="T52">
-            <v>36.655833333333341</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>256</v>
-          </cell>
-          <cell r="L53">
-            <v>0.94357603181132599</v>
-          </cell>
-          <cell r="T53">
-            <v>52.180833333333339</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>512</v>
-          </cell>
-          <cell r="L54">
-            <v>0.9646921705745235</v>
-          </cell>
-          <cell r="T54">
-            <v>72.006666666666661</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>16</v>
-          </cell>
-          <cell r="M56">
-            <v>1</v>
-          </cell>
-          <cell r="U56">
-            <v>6.3200000000000012</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>32</v>
-          </cell>
-          <cell r="M57">
-            <v>0.96950399908483431</v>
-          </cell>
-          <cell r="U57">
-            <v>11.27888888888889</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>64</v>
-          </cell>
-          <cell r="M58">
-            <v>0.94492797834107123</v>
-          </cell>
-          <cell r="U58">
-            <v>19.02333333333333</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>AVG ALL</v>
-          </cell>
-          <cell r="B59">
-            <v>128</v>
-          </cell>
-          <cell r="M59">
-            <v>0.93811189811151718</v>
-          </cell>
-          <cell r="U59">
-            <v>29.822592592592596</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>256</v>
-          </cell>
-          <cell r="M60">
-            <v>0.93905566306637855</v>
-          </cell>
-          <cell r="U60">
-            <v>40.637777777777771</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>512</v>
-          </cell>
-          <cell r="M61">
-            <v>0.95653914717966837</v>
-          </cell>
-          <cell r="U61">
-            <v>54.107407407407393</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4300,18 +4078,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="2"/>
-    <col min="10" max="10" width="2.1328125" customWidth="1"/>
-    <col min="11" max="11" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="10" max="10" width="2.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>35</v>
       </c>
@@ -4333,7 +4111,7 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4383,7 +4161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -4447,7 +4225,7 @@
         <v>0.37047020065887987</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -4511,7 +4289,7 @@
         <v>0.58385595792029132</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4575,7 +4353,7 @@
         <v>0.63252124645892349</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -4639,7 +4417,7 @@
         <v>0.36353410369158395</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -4703,7 +4481,7 @@
         <v>0.69750846637639086</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -4768,7 +4546,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -4832,7 +4610,7 @@
         <v>0.40928347762018785</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -4896,7 +4674,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -4960,7 +4738,7 @@
         <v>0.46059915337023766</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -5024,7 +4802,7 @@
         <v>0.32660931474339955</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -5088,7 +4866,7 @@
         <v>0.36142668428005281</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -5152,7 +4930,7 @@
         <v>0.32587513533020568</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -5216,7 +4994,7 @@
         <v>0.43611746758199849</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -5280,7 +5058,7 @@
         <v>0.60912745329865225</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -5344,7 +5122,7 @@
         <v>0.46940445026178013</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -5408,7 +5186,7 @@
         <v>0.36314931283484742</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -5472,7 +5250,7 @@
         <v>0.31075110456553756</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -5536,7 +5314,7 @@
         <v>0.40428571428571425</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -5600,7 +5378,7 @@
         <v>0.45240419819380034</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -5664,7 +5442,7 @@
         <v>0.40743889479277373</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -5728,7 +5506,7 @@
         <v>0.33115866388308973</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -5792,7 +5570,7 @@
         <v>0.39693073413521363</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -5856,7 +5634,7 @@
         <v>0.39818700688265901</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -5920,7 +5698,7 @@
         <v>0.36964579901153211</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -5984,7 +5762,7 @@
         <v>0.46081830790568651</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -6048,7 +5826,7 @@
         <v>0.43237634036665512</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -6112,7 +5890,7 @@
         <v>0.41297756215888415</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -6184,7 +5962,7 @@
         <v>0.48711075532267561</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -6256,7 +6034,7 @@
         <v>0.40308538510357844</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
@@ -6328,7 +6106,7 @@
         <v>0.451227845843439</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
@@ -6354,7 +6132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D34">
         <f>D32/C32</f>
         <v>0.88495831890946175</v>
@@ -6367,12 +6145,16 @@
         <f>F32/C32</f>
         <v>0.77954398735065455</v>
       </c>
+      <c r="G34">
+        <f>G32/C32</f>
+        <v>0.7719094711039175</v>
+      </c>
       <c r="I34">
         <f>I32/C32</f>
         <v>0.60748980972964217</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L37" s="2" t="s">
         <v>0</v>
       </c>
@@ -6395,7 +6177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K38" s="2" t="s">
         <v>39</v>
       </c>
@@ -6415,7 +6197,7 @@
         <v>0.65732433615711239</v>
       </c>
       <c r="Q38">
-        <v>0.57902527502310697</v>
+        <v>0.57335455221443121</v>
       </c>
       <c r="R38">
         <v>0.451227845843439</v>

--- a/paper/raw_data/revised/old_results/exp04_COMPARISON_OC.xlsx
+++ b/paper/raw_data/revised/old_results/exp04_COMPARISON_OC.xlsx
@@ -2,19 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aprodrom\Desktop\MemPod\paper\raw_data\revised\old_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodr\Documents\UCSD\MigrationResearch\MemPod\paper\raw_data\revised\old_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 with nonblocking" sheetId="3" r:id="rId3"/>
+    <sheet name="PROFILE HMA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="47">
   <si>
     <t>DDR4</t>
   </si>
@@ -151,11 +154,26 @@
   <si>
     <t>TLM</t>
   </si>
+  <si>
+    <t>REQS</t>
+  </si>
+  <si>
+    <t>CYCLES</t>
+  </si>
+  <si>
+    <t>INTERVALS</t>
+  </si>
+  <si>
+    <t>AMMAT</t>
+  </si>
+  <si>
+    <t>P 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +245,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -470,7 +488,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A30C-4D75-9F32-A7C62C551628}"/>
             </c:ext>
@@ -699,7 +717,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A30C-4D75-9F32-A7C62C551628}"/>
             </c:ext>
@@ -928,7 +946,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A30C-4D75-9F32-A7C62C551628}"/>
             </c:ext>
@@ -1157,7 +1175,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A30C-4D75-9F32-A7C62C551628}"/>
             </c:ext>
@@ -1386,7 +1404,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A30C-4D75-9F32-A7C62C551628}"/>
             </c:ext>
@@ -1615,7 +1633,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-A30C-4D75-9F32-A7C62C551628}"/>
             </c:ext>
@@ -1633,7 +1651,7 @@
         <c:overlap val="-27"/>
         <c:axId val="379708608"/>
         <c:axId val="379709000"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -1641,7 +1659,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$2</c15:sqref>
@@ -1670,7 +1688,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$K$3:$K$32</c15:sqref>
@@ -1774,7 +1792,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$3:$L$32</c15:sqref>
@@ -1877,7 +1895,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-A30C-4D75-9F32-A7C62C551628}"/>
                   </c:ext>
@@ -1890,7 +1908,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$Q$2</c15:sqref>
@@ -1919,7 +1937,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$K$3:$K$32</c15:sqref>
@@ -2023,7 +2041,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$Q$3:$Q$32</c15:sqref>
@@ -2126,7 +2144,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-A30C-4D75-9F32-A7C62C551628}"/>
                   </c:ext>
@@ -2254,7 +2272,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2322,7 +2339,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2435,7 +2452,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8EB4-42F8-ACD7-B2CF1A834764}"/>
             </c:ext>
@@ -2546,7 +2563,2433 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379709392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 with nonblocking'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NLM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="55000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 with nonblocking'!$K$3:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gems</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>leslie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sphinx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mix1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>mix10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>mix11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>mix12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mix2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>mix3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mix4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>mix5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>mix6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mix7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>mix8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>mix9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>AVG HG</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>AVG MIX</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 with nonblocking'!$M$3:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.79185384845762208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85110256928990491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87546742209631734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49974435013805085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88437348814707306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82540322580645153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77012341130963347</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61314285714285721</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7432432432432432</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60041530703055468</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77252311756935266</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76290147961024901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79138062547673538</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84109718609600381</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84702225130890063</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.71162357325879344</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.65272459499263613</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.7651020408163266</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66524286062972904</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.77853347502656756</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67171189979123169</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.7077975943591871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.65855296290078891</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.65444810543657328</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.77739251040221924</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.71982013144240742</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.7675358803315141</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.76678068068796523</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.71056614212950175</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.74277434553882293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B23-4D19-ADD3-87D2E4F18DA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 with nonblocking'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>THM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 with nonblocking'!$K$3:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gems</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>leslie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sphinx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mix1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>mix10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>mix11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>mix12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mix2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>mix3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mix4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>mix5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>mix6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mix7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>mix8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>mix9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>AVG HG</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>AVG MIX</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 with nonblocking'!$N$3:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.67714884696016764</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83006271495043493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69405099150141647</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45618161366192861</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83442186744073521</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60564516129032253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78117517038128559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59329208726799088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36814001779887273</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60211360634081901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45146156622158062</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50476735316552246</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.78718373137857645</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82706151832460728</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6568832983927323</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.52901325478645067</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67836734693877554</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.57908225530876256</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68799149840595109</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.55114822546972864</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.62235586893405226</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55715964411616581</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.54654036243822068</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.71168515950069344</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.63957108267035623</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.69557307459066098</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.66033524973922308</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.62247969927259117</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.64416909317080984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1B23-4D19-ADD3-87D2E4F18DA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 with nonblocking'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="98500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 with nonblocking'!$K$3:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gems</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>leslie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sphinx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mix1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>mix10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>mix11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>mix12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mix2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>mix3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mix4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>mix5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>mix6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mix7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>mix8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>mix9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>AVG HG</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>AVG MIX</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 with nonblocking'!$O$3:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.72211860598646682</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8623295676792897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89055616840992913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46660614080321744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92184827723455387</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85722334766261032</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8210753158118318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66161084370342227</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75012221310170013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62986880371047171</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74363200203140767</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55269421699109866</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69706512701709267</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83701534057473759</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89445778586791269</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.72775757148905029</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.64329771553783222</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.75174353998113363</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.62020798958078271</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.74707259119138969</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65113711882375702</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65313817175999467</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.58707750700032268</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.62709312747875667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.77307218770446351</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.69015744229867271</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.75720422472435966</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.76286626947912661</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.68300268184895585</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.72876064306953092</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1B23-4D19-ADD3-87D2E4F18DA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 with nonblocking'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEMPOD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="30000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 with nonblocking'!$K$3:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gems</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>leslie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sphinx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mix1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>mix10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>mix11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>mix12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mix2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>mix3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mix4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>mix5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>mix6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mix7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>mix8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>mix9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>AVG HG</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>AVG MIX</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 with nonblocking'!$P$3:$P$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.63522012578616349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88691078292534908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64305949008498586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41619797525309338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73427672955974843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47782258064516125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75851906428439864</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42771428571428571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49837186584174531</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30169089291011569</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5093791281373844</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36088054853843377</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45537757437070936</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69413572948687641</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70026178010471207</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59864896342883767</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46715758468335783</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5926530612244898</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.52684891383939469</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.60446333687566423</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47860125260960334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.56988801327250105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.51452073191203629</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.47364085667215811</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65776699029126207</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.60584572812175719</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.64463311097634934</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.59027727239647754</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56392898406860748</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.57902527502310697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1B23-4D19-ADD3-87D2E4F18DA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 with nonblocking'!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CAMEO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 with nonblocking'!$K$3:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gems</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>leslie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sphinx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mix1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>mix10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>mix11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>mix12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mix2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>mix3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mix4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>mix5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>mix6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mix7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>mix8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>mix9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>AVG HG</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>AVG MIX</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 with nonblocking'!$R$3:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.0589997005091345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83997572324499303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2854390934844193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63871561509356778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1757377842283501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5229838709677419</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92300607846748939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2811428571428571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67567567567567566</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60160189854642543</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.31334214002642</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9621075424034644</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79138062547673538</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87112792622369362</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84947643979057597</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1644537619380386</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2918998527245948</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.84224489795918378</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.79082255308762506</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0807651434643997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1894572025052192</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.349440066362505</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0085613563874434</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1052306425041185</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.85696948682385576</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.83292978208232438</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.82110369921164339</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0194187710743998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99816113651527238</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0103407298275848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1B23-4D19-ADD3-87D2E4F18DA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 with nonblocking'!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HBMoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 with nonblocking'!$K$3:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cactus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dealII</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gcc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gems</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lbm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>leslie</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>soplex</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>sphinx</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>zeusmp</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mix1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>mix10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>mix11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>mix12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mix2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>mix3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mix4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>mix5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>mix6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mix7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>mix8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>mix9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>AVG HG</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>AVG MIX</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 with nonblocking'!$S$3:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.37047020065887987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58385595792029132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63252124645892349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36353410369158395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69750846637639086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66666666666666674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40928347762018785</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46059915337023766</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32660931474339955</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36142668428005281</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32587513533020568</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43611746758199849</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.60912745329865225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46940445026178013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36314931283484742</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.31075110456553756</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.40428571428571425</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.45240419819380034</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.40743889479277373</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.33115866388308973</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.39693073413521363</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.39818700688265901</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.36964579901153211</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.46081830790568651</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.43237634036665512</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.41297756215888415</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.48711075532267561</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.40308538510357844</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.451227845843439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1B23-4D19-ADD3-87D2E4F18DA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="379708608"/>
+        <c:axId val="379709000"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet1 with nonblocking'!$L$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>DDR4</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:tint val="88500"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet1 with nonblocking'!$K$3:$K$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>astar</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>bwaves</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>bzip</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cactus</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>dealII</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>gcc</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>gems</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>lbm</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>leslie</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>libquantum</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>omnetpp</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>soplex</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>sphinx</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>xalanc</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>zeusmp</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>mix1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>mix10</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>mix11</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>mix12</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mix2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>mix3</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mix4</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>mix5</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>mix6</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>mix7</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>mix8</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>mix9</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>AVG HG</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>AVG MIX</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>AVG ALL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet1 with nonblocking'!$L$3:$L$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-1B23-4D19-ADD3-87D2E4F18DA4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet1 with nonblocking'!$Q$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>MPNEW</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:tint val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet1 with nonblocking'!$K$3:$K$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>astar</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>bwaves</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>bzip</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cactus</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>dealII</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>gcc</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>gems</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>lbm</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>leslie</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>libquantum</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>omnetpp</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>soplex</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>sphinx</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>xalanc</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>zeusmp</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>mix1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>mix10</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>mix11</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>mix12</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mix2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>mix3</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mix4</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>mix5</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>mix6</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>mix7</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>mix8</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>mix9</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>AVG HG</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>AVG MIX</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>AVG ALL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sheet1 with nonblocking'!$Q$3:$Q$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>0.63372267145852046</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.86182480275136564</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.64249291784702556</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.41742509459044891</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.73463957426221571</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.47338709677419355</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.72039049548719836</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.42685714285714282</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.49609247802018885</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.30287748442598639</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.50726552179656537</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.36088054853843377</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.45308924485125862</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.68739654764719793</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.66606675392670156</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.58839972047519218</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.46804123711340206</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.59</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.51476690261166713</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.60148777895855476</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.47651356993736954</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.55972625466611359</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.4997481954003693</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.46190280065897854</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.63834951456310685</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.58163265306122458</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.62644026682838083</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.58256313223200618</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.55235878993018839</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.56966441273966784</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-1B23-4D19-ADD3-87D2E4F18DA4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="379708608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379709000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="379709000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379708608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 with nonblocking'!$K$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sheet1 with nonblocking'!$L$37:$R$37</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sheet1 with nonblocking'!$M$37:$R$37</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>CAMEO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TLM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HMA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>THM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MEMPOD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HBMoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sheet1 with nonblocking'!$L$38:$R$38</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sheet1 with nonblocking'!$M$38:$R$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0103407298275848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74277434553882293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72876064306953092</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64416909317080984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56966441273966784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.451227845843439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDD9-4D08-A195-75AEA75E2B5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="379709392"/>
+        <c:axId val="379710960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="379709392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379710960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="379710960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900"/>
+                  <a:t>AMMAT / AMMAT (DDR4-2400)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2682,6 +5125,60 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
   <cs:variation>
@@ -3714,6 +6211,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3763,6 +7266,75 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647605</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4078,18 +7650,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="10" max="10" width="2.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.1328125" style="2"/>
+    <col min="10" max="10" width="2.1328125" customWidth="1"/>
+    <col min="11" max="11" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
         <v>35</v>
       </c>
@@ -4111,7 +7683,7 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4161,7 +7733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -4225,7 +7797,7 @@
         <v>0.37047020065887987</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -4289,7 +7861,7 @@
         <v>0.58385595792029132</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4353,7 +7925,7 @@
         <v>0.63252124645892349</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -4417,7 +7989,7 @@
         <v>0.36353410369158395</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -4481,7 +8053,7 @@
         <v>0.69750846637639086</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -4546,7 +8118,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -4610,7 +8182,7 @@
         <v>0.40928347762018785</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -4674,7 +8246,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -4738,7 +8310,7 @@
         <v>0.46059915337023766</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -4802,7 +8374,7 @@
         <v>0.32660931474339955</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -4866,7 +8438,7 @@
         <v>0.36142668428005281</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -4930,7 +8502,7 @@
         <v>0.32587513533020568</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -4994,7 +8566,7 @@
         <v>0.43611746758199849</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -5058,7 +8630,7 @@
         <v>0.60912745329865225</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -5122,7 +8694,7 @@
         <v>0.46940445026178013</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -5186,7 +8758,7 @@
         <v>0.36314931283484742</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -5250,7 +8822,7 @@
         <v>0.31075110456553756</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -5314,7 +8886,7 @@
         <v>0.40428571428571425</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -5378,7 +8950,7 @@
         <v>0.45240419819380034</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -5442,7 +9014,7 @@
         <v>0.40743889479277373</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -5506,7 +9078,7 @@
         <v>0.33115866388308973</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -5570,7 +9142,7 @@
         <v>0.39693073413521363</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -5634,7 +9206,7 @@
         <v>0.39818700688265901</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -5698,7 +9270,7 @@
         <v>0.36964579901153211</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -5762,7 +9334,7 @@
         <v>0.46081830790568651</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -5826,7 +9398,7 @@
         <v>0.43237634036665512</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -5890,7 +9462,7 @@
         <v>0.41297756215888415</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -5962,7 +9534,7 @@
         <v>0.48711075532267561</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -6034,7 +9606,7 @@
         <v>0.40308538510357844</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
@@ -6106,7 +9678,7 @@
         <v>0.451227845843439</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
@@ -6132,7 +9704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.45">
       <c r="D34">
         <f>D32/C32</f>
         <v>0.88495831890946175</v>
@@ -6154,7 +9726,7 @@
         <v>0.60748980972964217</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.45">
       <c r="L37" s="2" t="s">
         <v>0</v>
       </c>
@@ -6177,7 +9749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.45">
       <c r="K38" s="2" t="s">
         <v>39</v>
       </c>
@@ -6212,4 +9784,3069 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>22.61</v>
+      </c>
+      <c r="C2">
+        <v>21.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>41.03</v>
+      </c>
+      <c r="C3">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>61.25</v>
+      </c>
+      <c r="C4">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>44.61</v>
+      </c>
+      <c r="C5">
+        <v>40.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>68.989999999999995</v>
+      </c>
+      <c r="C6">
+        <v>60.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>15.02</v>
+      </c>
+      <c r="C7">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>42.41</v>
+      </c>
+      <c r="C8">
+        <v>39.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>20.75</v>
+      </c>
+      <c r="C9">
+        <v>14.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>36.44</v>
+      </c>
+      <c r="C10">
+        <v>30.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>12.41</v>
+      </c>
+      <c r="C11">
+        <v>10.210000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>22.79</v>
+      </c>
+      <c r="C12">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>12.51</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>26.47</v>
+      </c>
+      <c r="C14">
+        <v>23.76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>66.58</v>
+      </c>
+      <c r="C15">
+        <v>58.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>50.55</v>
+      </c>
+      <c r="C16">
+        <v>40.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>28.2</v>
+      </c>
+      <c r="C17">
+        <v>25.26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>17.96</v>
+      </c>
+      <c r="C18">
+        <v>15.89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>33.24</v>
+      </c>
+      <c r="C19">
+        <v>28.91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>47.45</v>
+      </c>
+      <c r="C20">
+        <v>42.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>32.369999999999997</v>
+      </c>
+      <c r="C21">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>21.12</v>
+      </c>
+      <c r="C22">
+        <v>18.260000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>30.01</v>
+      </c>
+      <c r="C23">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>33.19</v>
+      </c>
+      <c r="C24">
+        <v>29.77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>26.54</v>
+      </c>
+      <c r="C25">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>41.05</v>
+      </c>
+      <c r="C26">
+        <v>36.82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>36.979999999999997</v>
+      </c>
+      <c r="C27">
+        <v>33.630000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>34.409999999999997</v>
+      </c>
+      <c r="C28">
+        <v>30.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="2"/>
+    <col min="10" max="10" width="2.1328125" customWidth="1"/>
+    <col min="11" max="11" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="L1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>33.39</v>
+      </c>
+      <c r="C3">
+        <v>26.44</v>
+      </c>
+      <c r="D3">
+        <v>22.61</v>
+      </c>
+      <c r="E3">
+        <v>24.111540253888126</v>
+      </c>
+      <c r="F3">
+        <v>21.21</v>
+      </c>
+      <c r="G3">
+        <v>21.16</v>
+      </c>
+      <c r="H3">
+        <v>35.36</v>
+      </c>
+      <c r="I3">
+        <v>12.37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <f>B3/$B3</f>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:S18" si="0">C3/$B3</f>
+        <v>0.79185384845762208</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>0.67714884696016764</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>0.72211860598646682</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>0.63522012578616349</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>0.63372267145852046</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>1.0589997005091345</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>0.37047020065887987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>49.43</v>
+      </c>
+      <c r="C4">
+        <v>42.07</v>
+      </c>
+      <c r="D4">
+        <v>41.03</v>
+      </c>
+      <c r="E4">
+        <v>42.624950530387288</v>
+      </c>
+      <c r="F4">
+        <v>43.84</v>
+      </c>
+      <c r="G4">
+        <v>42.6</v>
+      </c>
+      <c r="H4">
+        <v>41.52</v>
+      </c>
+      <c r="I4">
+        <v>28.86</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:S32" si="1">B4/$B4</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0.85110256928990491</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0.83006271495043493</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0.8623295676792897</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0.88691078292534908</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0.86182480275136564</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0.83997572324499303</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>0.58385595792029132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>88.25</v>
+      </c>
+      <c r="C5">
+        <v>77.260000000000005</v>
+      </c>
+      <c r="D5">
+        <v>61.25</v>
+      </c>
+      <c r="E5">
+        <v>78.591581862176241</v>
+      </c>
+      <c r="F5">
+        <v>56.75</v>
+      </c>
+      <c r="G5">
+        <v>56.7</v>
+      </c>
+      <c r="H5">
+        <v>113.44</v>
+      </c>
+      <c r="I5">
+        <v>55.82</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0.87546742209631734</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0.69405099150141647</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0.89055616840992913</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0.64305949008498586</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0.64249291784702556</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>1.2854390934844193</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0.63252124645892349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>97.79</v>
+      </c>
+      <c r="C6">
+        <v>48.87</v>
+      </c>
+      <c r="D6">
+        <v>44.61</v>
+      </c>
+      <c r="E6">
+        <v>45.629414509146635</v>
+      </c>
+      <c r="F6">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="G6">
+        <v>40.82</v>
+      </c>
+      <c r="H6">
+        <v>62.46</v>
+      </c>
+      <c r="I6">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.49974435013805085</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.45618161366192861</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0.46660614080321744</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0.41619797525309338</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>0.41742509459044891</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>0.63871561509356778</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0.36353410369158395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>82.68</v>
+      </c>
+      <c r="C7">
+        <v>73.12</v>
+      </c>
+      <c r="D7">
+        <v>68.989999999999995</v>
+      </c>
+      <c r="E7">
+        <v>76.21841556175292</v>
+      </c>
+      <c r="F7">
+        <v>60.71</v>
+      </c>
+      <c r="G7">
+        <v>60.74</v>
+      </c>
+      <c r="H7">
+        <v>97.21</v>
+      </c>
+      <c r="I7">
+        <v>57.67</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0.88437348814707306</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0.83442186744073521</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0.92184827723455387</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0.73427672955974843</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0.73463957426221571</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>1.1757377842283501</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0.69750846637639086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>24.8</v>
+      </c>
+      <c r="C8">
+        <v>20.47</v>
+      </c>
+      <c r="D8">
+        <v>15.02</v>
+      </c>
+      <c r="E8">
+        <v>21.259139022032738</v>
+      </c>
+      <c r="F8">
+        <v>11.85</v>
+      </c>
+      <c r="G8">
+        <v>11.74</v>
+      </c>
+      <c r="H8">
+        <v>62.57</v>
+      </c>
+      <c r="I8" s="1">
+        <f>B8*2/3</f>
+        <v>16.533333333333335</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0.82540322580645153</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.60564516129032253</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0.85722334766261032</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0.47782258064516125</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0.47338709677419355</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>2.5229838709677419</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>54.29</v>
+      </c>
+      <c r="C9">
+        <v>41.81</v>
+      </c>
+      <c r="D9">
+        <v>42.41</v>
+      </c>
+      <c r="E9">
+        <v>44.576178895424349</v>
+      </c>
+      <c r="F9">
+        <v>41.18</v>
+      </c>
+      <c r="G9">
+        <v>39.11</v>
+      </c>
+      <c r="H9">
+        <v>50.11</v>
+      </c>
+      <c r="I9">
+        <v>22.22</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0.77012341130963347</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.78117517038128559</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0.8210753158118318</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0.75851906428439864</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0.72039049548719836</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0.92300607846748939</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0.40928347762018785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>21.46</v>
+      </c>
+      <c r="D10">
+        <v>20.75</v>
+      </c>
+      <c r="E10">
+        <v>23.15637952961978</v>
+      </c>
+      <c r="F10">
+        <v>14.97</v>
+      </c>
+      <c r="G10">
+        <v>14.94</v>
+      </c>
+      <c r="H10">
+        <v>44.84</v>
+      </c>
+      <c r="I10">
+        <v>7.49</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0.61314285714285721</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0.59285714285714286</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0.66161084370342227</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>0.42771428571428571</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>0.42685714285714282</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>1.2811428571428571</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>61.42</v>
+      </c>
+      <c r="C11">
+        <v>45.65</v>
+      </c>
+      <c r="D11">
+        <v>36.44</v>
+      </c>
+      <c r="E11">
+        <v>46.072506328706424</v>
+      </c>
+      <c r="F11">
+        <v>30.61</v>
+      </c>
+      <c r="G11">
+        <v>30.47</v>
+      </c>
+      <c r="H11">
+        <v>41.5</v>
+      </c>
+      <c r="I11">
+        <v>28.29</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0.7432432432432432</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.59329208726799088</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0.75012221310170013</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0.49837186584174531</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>0.49609247802018885</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>0.67567567567567566</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0.46059915337023766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>33.71</v>
+      </c>
+      <c r="C12">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="D12">
+        <v>12.41</v>
+      </c>
+      <c r="E12">
+        <v>21.232877373080001</v>
+      </c>
+      <c r="F12">
+        <v>10.17</v>
+      </c>
+      <c r="G12">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="H12">
+        <v>20.28</v>
+      </c>
+      <c r="I12">
+        <v>11.01</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0.60041530703055468</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0.36814001779887273</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0.62986880371047171</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0.30169089291011569</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>0.30287748442598639</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>0.60160189854642543</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0.32660931474339955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>37.85</v>
+      </c>
+      <c r="C13">
+        <v>29.24</v>
+      </c>
+      <c r="D13">
+        <v>22.79</v>
+      </c>
+      <c r="E13">
+        <v>28.146471276888782</v>
+      </c>
+      <c r="F13">
+        <v>19.28</v>
+      </c>
+      <c r="G13">
+        <v>19.2</v>
+      </c>
+      <c r="H13">
+        <v>49.71</v>
+      </c>
+      <c r="I13">
+        <v>13.68</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0.77252311756935266</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.60211360634081901</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0.74363200203140767</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>0.5093791281373844</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>0.50726552179656537</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>1.31334214002642</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0.36142668428005281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>27.71</v>
+      </c>
+      <c r="C14">
+        <v>21.14</v>
+      </c>
+      <c r="D14">
+        <v>12.51</v>
+      </c>
+      <c r="E14">
+        <v>15.315156752823343</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>54.37</v>
+      </c>
+      <c r="I14">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0.76290147961024901</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0.45146156622158062</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0.55269421699109866</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0.36088054853843377</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0.36088054853843377</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>1.9621075424034644</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0.32587513533020568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>52.44</v>
+      </c>
+      <c r="C15">
+        <v>41.5</v>
+      </c>
+      <c r="D15">
+        <v>26.47</v>
+      </c>
+      <c r="E15">
+        <v>36.554095260776336</v>
+      </c>
+      <c r="F15">
+        <v>23.88</v>
+      </c>
+      <c r="G15">
+        <v>23.76</v>
+      </c>
+      <c r="H15">
+        <v>41.5</v>
+      </c>
+      <c r="I15">
+        <v>22.87</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0.79138062547673538</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0.50476735316552246</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>0.69706512701709267</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>0.45537757437070936</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>0.45308924485125862</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>0.79138062547673538</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>0.43611746758199849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>84.58</v>
+      </c>
+      <c r="C16">
+        <v>71.14</v>
+      </c>
+      <c r="D16">
+        <v>66.58</v>
+      </c>
+      <c r="E16">
+        <v>70.794757505811305</v>
+      </c>
+      <c r="F16">
+        <v>58.71</v>
+      </c>
+      <c r="G16">
+        <v>58.14</v>
+      </c>
+      <c r="H16">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="I16">
+        <v>51.52</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>0.84109718609600381</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0.78718373137857645</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>0.83701534057473759</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>0.69413572948687641</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>0.68739654764719793</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>0.87112792622369362</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>0.60912745329865225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>61.12</v>
+      </c>
+      <c r="C17">
+        <v>51.77</v>
+      </c>
+      <c r="D17">
+        <v>50.55</v>
+      </c>
+      <c r="E17">
+        <v>54.669259872246819</v>
+      </c>
+      <c r="F17">
+        <v>42.8</v>
+      </c>
+      <c r="G17">
+        <v>40.71</v>
+      </c>
+      <c r="H17">
+        <v>51.92</v>
+      </c>
+      <c r="I17">
+        <v>28.69</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>0.84702225130890063</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0.82706151832460728</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>0.89445778586791269</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>0.70026178010471207</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>0.66606675392670156</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>0.84947643979057597</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>0.46940445026178013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>42.93</v>
+      </c>
+      <c r="C18">
+        <v>30.55</v>
+      </c>
+      <c r="D18">
+        <v>28.2</v>
+      </c>
+      <c r="E18">
+        <v>31.242632544024929</v>
+      </c>
+      <c r="F18">
+        <v>25.7</v>
+      </c>
+      <c r="G18">
+        <v>25.26</v>
+      </c>
+      <c r="H18">
+        <v>49.99</v>
+      </c>
+      <c r="I18">
+        <v>15.59</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0.71162357325879344</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>0.6568832983927323</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>0.72775757148905029</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>0.59864896342883767</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>0.58839972047519218</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>1.1644537619380386</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>0.36314931283484742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="C19">
+        <v>22.16</v>
+      </c>
+      <c r="D19">
+        <v>17.96</v>
+      </c>
+      <c r="E19">
+        <v>21.839957442509405</v>
+      </c>
+      <c r="F19">
+        <v>15.86</v>
+      </c>
+      <c r="G19">
+        <v>15.89</v>
+      </c>
+      <c r="H19">
+        <v>43.86</v>
+      </c>
+      <c r="I19">
+        <v>10.55</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>0.65272459499263613</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>0.52901325478645067</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>0.64329771553783222</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>0.46715758468335783</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>0.46804123711340206</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>1.2918998527245948</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>0.31075110456553756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>37.49</v>
+      </c>
+      <c r="D20">
+        <v>33.24</v>
+      </c>
+      <c r="E20">
+        <v>36.835433459075546</v>
+      </c>
+      <c r="F20">
+        <v>29.04</v>
+      </c>
+      <c r="G20">
+        <v>28.91</v>
+      </c>
+      <c r="H20">
+        <v>41.27</v>
+      </c>
+      <c r="I20">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0.7651020408163266</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>0.67836734693877554</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>0.75174353998113363</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>0.5926530612244898</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>0.59</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>0.84224489795918378</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="1"/>
+        <v>0.40428571428571425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>81.94</v>
+      </c>
+      <c r="C21">
+        <v>54.51</v>
+      </c>
+      <c r="D21">
+        <v>47.45</v>
+      </c>
+      <c r="E21">
+        <v>50.819842666249336</v>
+      </c>
+      <c r="F21">
+        <v>43.17</v>
+      </c>
+      <c r="G21">
+        <v>42.18</v>
+      </c>
+      <c r="H21">
+        <v>64.8</v>
+      </c>
+      <c r="I21">
+        <v>37.07</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>0.66524286062972904</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>0.57908225530876256</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>0.62020798958078271</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>0.52684891383939469</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>0.51476690261166713</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>0.79082255308762506</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="1"/>
+        <v>0.45240419819380034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>47.05</v>
+      </c>
+      <c r="C22">
+        <v>36.630000000000003</v>
+      </c>
+      <c r="D22">
+        <v>32.369999999999997</v>
+      </c>
+      <c r="E22">
+        <v>35.149765415554882</v>
+      </c>
+      <c r="F22">
+        <v>28.44</v>
+      </c>
+      <c r="G22">
+        <v>28.3</v>
+      </c>
+      <c r="H22">
+        <v>50.85</v>
+      </c>
+      <c r="I22">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>0.77853347502656756</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>0.68799149840595109</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>0.74707259119138969</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>0.60446333687566423</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>0.60148777895855476</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>1.0807651434643997</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>0.40743889479277373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>38.32</v>
+      </c>
+      <c r="C23">
+        <v>25.74</v>
+      </c>
+      <c r="D23">
+        <v>21.12</v>
+      </c>
+      <c r="E23">
+        <v>24.951574393326368</v>
+      </c>
+      <c r="F23">
+        <v>18.34</v>
+      </c>
+      <c r="G23">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="H23">
+        <v>45.58</v>
+      </c>
+      <c r="I23">
+        <v>12.69</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>0.67171189979123169</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>0.55114822546972864</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>0.65113711882375702</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>0.47860125260960334</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>0.47651356993736954</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>1.1894572025052192</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="1"/>
+        <v>0.33115866388308973</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>48.22</v>
+      </c>
+      <c r="C24">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="D24">
+        <v>30.01</v>
+      </c>
+      <c r="E24">
+        <v>31.494322642266944</v>
+      </c>
+      <c r="F24">
+        <v>27.48</v>
+      </c>
+      <c r="G24">
+        <v>26.99</v>
+      </c>
+      <c r="H24">
+        <v>65.069999999999993</v>
+      </c>
+      <c r="I24">
+        <v>19.14</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0.7077975943591871</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>0.62235586893405226</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0.65313817175999467</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>0.56988801327250105</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>0.55972625466611359</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>1.349440066362505</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>0.39693073413521363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>59.57</v>
+      </c>
+      <c r="C25">
+        <v>39.229999999999997</v>
+      </c>
+      <c r="D25">
+        <v>33.19</v>
+      </c>
+      <c r="E25">
+        <v>34.972207092009221</v>
+      </c>
+      <c r="F25">
+        <v>30.65</v>
+      </c>
+      <c r="G25">
+        <v>29.77</v>
+      </c>
+      <c r="H25">
+        <v>60.08</v>
+      </c>
+      <c r="I25">
+        <v>23.72</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0.65855296290078891</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>0.55715964411616581</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>0.58707750700032268</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>0.51452073191203629</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>0.4997481954003693</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>1.0085613563874434</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>0.39818700688265901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>48.56</v>
+      </c>
+      <c r="C26">
+        <v>31.78</v>
+      </c>
+      <c r="D26">
+        <v>26.54</v>
+      </c>
+      <c r="E26">
+        <v>30.451642270368424</v>
+      </c>
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>22.43</v>
+      </c>
+      <c r="H26">
+        <v>53.67</v>
+      </c>
+      <c r="I26">
+        <v>17.95</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0.65444810543657328</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>0.54654036243822068</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0.62709312747875667</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>0.47364085667215811</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>0.46190280065897854</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>1.1052306425041185</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>0.36964579901153211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>57.68</v>
+      </c>
+      <c r="C27">
+        <v>44.84</v>
+      </c>
+      <c r="D27">
+        <v>41.05</v>
+      </c>
+      <c r="E27">
+        <v>44.590803786793458</v>
+      </c>
+      <c r="F27">
+        <v>37.94</v>
+      </c>
+      <c r="G27">
+        <v>36.82</v>
+      </c>
+      <c r="H27">
+        <v>49.43</v>
+      </c>
+      <c r="I27">
+        <v>26.58</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>0.77739251040221924</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>0.71168515950069344</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>0.77307218770446351</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>0.65776699029126207</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>0.63834951456310685</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>0.85696948682385576</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>0.46081830790568651</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>57.82</v>
+      </c>
+      <c r="C28">
+        <v>41.62</v>
+      </c>
+      <c r="D28">
+        <v>36.979999999999997</v>
+      </c>
+      <c r="E28">
+        <v>39.904903313709255</v>
+      </c>
+      <c r="F28">
+        <v>35.03</v>
+      </c>
+      <c r="G28">
+        <v>33.630000000000003</v>
+      </c>
+      <c r="H28">
+        <v>48.16</v>
+      </c>
+      <c r="I28">
+        <v>25</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>0.71982013144240742</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>0.63957108267035623</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>0.69015744229867271</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>0.60584572812175719</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>0.58163265306122458</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>0.83292978208232438</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>0.43237634036665512</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>49.47</v>
+      </c>
+      <c r="C29">
+        <v>37.97</v>
+      </c>
+      <c r="D29">
+        <v>34.409999999999997</v>
+      </c>
+      <c r="E29">
+        <v>37.45889299711407</v>
+      </c>
+      <c r="F29">
+        <v>31.89</v>
+      </c>
+      <c r="G29">
+        <v>30.99</v>
+      </c>
+      <c r="H29">
+        <v>40.619999999999997</v>
+      </c>
+      <c r="I29">
+        <v>20.43</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>0.7675358803315141</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>0.69557307459066098</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>0.75720422472435966</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>0.64463311097634934</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>0.62644026682838083</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>0.82110369921164339</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>0.41297756215888415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <f>AVERAGE(B3:B17)</f>
+        <v>54.96400000000002</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:I30" si="2">AVERAGE(C3:C17)</f>
+        <v>42.145333333333333</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>36.294666666666672</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>41.930181635650733</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>32.444000000000003</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>32.019999999999996</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>56.031333333333329</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>26.773555555555554</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>0.76678068068796523</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>0.66033524973922308</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>0.76286626947912661</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>0.59027727239647754</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>0.58256313223200618</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>1.0194187710743998</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>0.48711075532267561</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <f>AVERAGE(B18:B29)</f>
+        <v>51.209166666666668</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:I31" si="3">AVERAGE(C18:C29)</f>
+        <v>36.38750000000001</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>31.876666666666665</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>34.975998168583487</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>28.87833333333333</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>28.28583333333334</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>51.115000000000002</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>20.641666666666666</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>0.71056614212950175</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0.62247969927259117</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0.68300268184895585</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>0.56392898406860748</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>0.55235878993018839</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>0.99816113651527238</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>0.40308538510357844</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32">
+        <f>AVERAGE(B3:B29)</f>
+        <v>53.295185185185183</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:I32" si="4">AVERAGE(C3:C29)</f>
+        <v>39.586296296296297</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="4"/>
+        <v>34.33111111111112</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>38.839433428065291</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>30.859259259259264</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>30.360370370370362</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>53.846296296296288</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>24.048271604938275</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>0.74277434553882293</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>0.64416909317080984</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>0.72876064306953092</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>0.57902527502310697</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>0.56966441273966784</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>1.0103407298275848</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>0.451227845843439</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="D34">
+        <f>D32/C32</f>
+        <v>0.86724736394000934</v>
+      </c>
+      <c r="E34">
+        <f>E32/C32</f>
+        <v>0.9811332976785484</v>
+      </c>
+      <c r="F34">
+        <f>F32/C32</f>
+        <v>0.77954398735065455</v>
+      </c>
+      <c r="G34">
+        <f>G32/C32</f>
+        <v>0.76694142192865067</v>
+      </c>
+      <c r="I34">
+        <f>I32/C32</f>
+        <v>0.60748980972964217</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="L37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="K38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1.0103407298275848</v>
+      </c>
+      <c r="N38">
+        <v>0.74277434553882293</v>
+      </c>
+      <c r="O38">
+        <v>0.72876064306953092</v>
+      </c>
+      <c r="P38">
+        <v>0.64416909317080984</v>
+      </c>
+      <c r="Q38">
+        <v>0.56966441273966784</v>
+      </c>
+      <c r="R38">
+        <v>0.451227845843439</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="L1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>198587624</v>
+      </c>
+      <c r="C2">
+        <v>4599253490</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>23.15</v>
+      </c>
+      <c r="F2">
+        <f>(C2+D2*13500000)/B2</f>
+        <v>24.111540253888126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>79134438</v>
+      </c>
+      <c r="C3">
+        <v>3238101505</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>40.909999999999997</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F28" si="0">(C3+D3*13500000)/B3</f>
+        <v>42.624950530387288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>36565379</v>
+      </c>
+      <c r="C4">
+        <v>2765730977</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>75.63</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>78.591581862176241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>62110586</v>
+      </c>
+      <c r="C5">
+        <v>2726069674</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>43.89</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>45.629414509146635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>34259688</v>
+      </c>
+      <c r="C6">
+        <v>2516719137</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>73.459999999999994</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>76.21841556175292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>246175684</v>
+      </c>
+      <c r="C7">
+        <v>5030983090</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>20.43</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>21.259139022032738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>118773703</v>
+      </c>
+      <c r="C8">
+        <v>5091977833</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>42.87</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>44.576178895424349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>419415170</v>
+      </c>
+      <c r="C9">
+        <v>9320636857</v>
+      </c>
+      <c r="D9">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>22.22</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>23.15637952961978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>84242729</v>
+      </c>
+      <c r="C10">
+        <v>3732773665</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>44.3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>46.072506328706424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>269120826</v>
+      </c>
+      <c r="C11">
+        <v>5484709497</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>20.38</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>21.232877373080001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>203865868</v>
+      </c>
+      <c r="C12">
+        <v>5508604798</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>27.02</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>28.146471276888782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>334882772</v>
+      </c>
+      <c r="C13">
+        <v>4926282147</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>14.71</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>15.315156752823343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>102480983</v>
+      </c>
+      <c r="C14">
+        <v>3597599615</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>35.1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>36.554095260776336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>41116841</v>
+      </c>
+      <c r="C15">
+        <v>2802856788</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>68.16</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>70.794757505811305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>80913369</v>
+      </c>
+      <c r="C16">
+        <v>4247973997</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>52.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>54.669259872246819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>101919815</v>
+      </c>
+      <c r="C17">
+        <v>3062743329</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>30.05</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>31.242632544024929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>180473047</v>
+      </c>
+      <c r="C18">
+        <v>3793023666</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>21.01</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>21.839957442509405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>78166272</v>
+      </c>
+      <c r="C19">
+        <v>2771288511</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>36.835433459075546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>43585181</v>
+      </c>
+      <c r="C20">
+        <v>2133992041</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>48.96</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>50.819842666249336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>76095412</v>
+      </c>
+      <c r="C21">
+        <v>2566735881</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>33.729999999999997</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>35.149765415554882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>127221163</v>
+      </c>
+      <c r="C22">
+        <v>3052868313</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>23.99</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>24.951574393326368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>65450253</v>
+      </c>
+      <c r="C23">
+        <v>1980311385</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>30.25</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>31.494322642266944</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>61213062</v>
+      </c>
+      <c r="C24">
+        <v>2059755881</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>33.64</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>34.972207092009221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>79077844</v>
+      </c>
+      <c r="C25">
+        <v>2313550217</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>29.25</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>30.451642270368424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>63314887</v>
+      </c>
+      <c r="C26">
+        <v>2715261703</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>42.88</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>44.590803786793458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>58033305</v>
+      </c>
+      <c r="C27">
+        <v>2234813425</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>38.5</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>39.904903313709255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>73853195</v>
+      </c>
+      <c r="C28">
+        <v>2658458929</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>35.99</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>37.45889299711407</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>